--- a/myext/ext_config/dstest.xlsx
+++ b/myext/ext_config/dstest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>quận 2</t>
+  </si>
+  <si>
+    <t>ALL</t>
   </si>
 </sst>
 </file>
@@ -378,7 +381,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,7 +399,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>

--- a/myext/ext_config/dstest.xlsx
+++ b/myext/ext_config/dstest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>lable</t>
-  </si>
-  <si>
-    <t>vn</t>
   </si>
   <si>
     <t>viet nam</t>
@@ -381,7 +378,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,54 +396,54 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
